--- a/mbs-perturbation/chain/svm/chain-svm-linear-results.xlsx
+++ b/mbs-perturbation/chain/svm/chain-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C2" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8138528138528138</v>
+        <v>0.6854256854256854</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08913043478260868</v>
+        <v>0.7891304347826087</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09523809523809525</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3898550724637681</v>
+        <v>0.7594202898550725</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6159420289855072</v>
+        <v>0.3956521739130435</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4289855072463768</v>
+        <v>0.0855072463768116</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02287581699346405</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04066924066924067</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4675531714662149</v>
+        <v>0.5430271660706444</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chain/svm/chain-svm-linear-results.xlsx
+++ b/mbs-perturbation/chain/svm/chain-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6854256854256854</v>
+        <v>0.908080808080808</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7891304347826087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7594202898550725</v>
+        <v>0.9949238578680203</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3956521739130435</v>
+        <v>0.7705627705627706</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0855072463768116</v>
+        <v>0.5717893217893217</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01428571428571429</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.32</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02580645161290323</v>
+        <v>0.275353218210361</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5430271660706444</v>
+        <v>0.849071351660184</v>
       </c>
     </row>
   </sheetData>
